--- a/src/test/resources/Output.xlsx
+++ b/src/test/resources/Output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>First Name</t>
   </si>
@@ -107,6 +107,9 @@
     <t>Sports, Music</t>
   </si>
   <si>
+    <t>image2.jpg</t>
+  </si>
+  <si>
     <t>123 Street</t>
   </si>
   <si>
@@ -137,6 +140,9 @@
     <t>Reading</t>
   </si>
   <si>
+    <t>image3.jpg</t>
+  </si>
+  <si>
     <t>456 Avenue</t>
   </si>
   <si>
@@ -152,21 +158,13 @@
     <t>sanika@gmail.com</t>
   </si>
   <si>
+    <t>Female</t>
+  </si>
+  <si>
     <t>30-12-2003</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Failed: no such element: Unable to locate element: {"method":"xpath","selector":"//div[text()='']"}
-  (Session info: chrome=130.0.6723.60)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.25.0', revision: '8a8aea2337'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '22.0.2'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [5d530f9f6f6776e991b1a3a9f6ea952e, findElement {using=xpath, value=//div[text()='']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 130.0.6723.60, chrome: {chromedriverVersion: 129.0.6668.100 (cf58cba358d..., userDataDir: C:\Users\SAKSHA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59611}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:59611/devtoo..., se:cdpVersion: 130.0.6723.60, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 5d530f9f6f6776e991b1a3a9f6ea952e</t>
+    <t>image4.jpg</t>
   </si>
 </sst>
 </file>
@@ -211,7 +209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -325,16 +323,16 @@
         <v>30</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s" s="0">
         <v>25</v>
@@ -342,40 +340,40 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>16</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s" s="0">
         <v>23</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s" s="0">
         <v>25</v>
@@ -383,22 +381,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>17</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>19</v>
@@ -407,7 +405,7 @@
         <v>20</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s" s="0">
         <v>22</v>
@@ -420,47 +418,6 @@
       </c>
       <c r="M5" t="s" s="0">
         <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="K6" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="L6" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="M6" t="s" s="0">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
